--- a/Red1.xlsx
+++ b/Red1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRUEBAS PROGRAMACION\AI\Redes neuronales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plgimscom-my.sharepoint.com/personal/dataanalyst-2_plgims_com/Documents/Documents/Programming/UdC/neuronal_network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05DE6C8-22B2-442E-8115-DB86E49C98B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A05DE6C8-22B2-442E-8115-DB86E49C98B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2D734E0-6427-4CD9-ABDD-A79153036D7B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9EAE1880-0213-4724-8FE6-C09AF09B8027}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9EAE1880-0213-4724-8FE6-C09AF09B8027}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -98,12 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -124,7 +121,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8238444-4A61-4C66-A79F-DA30CE33DBF0}">
-  <dimension ref="D4:I62"/>
+  <dimension ref="D4:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61:F62"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -448,19 +445,19 @@
         <v>1,5,6,8,9,10,11,44,104,56,129,156,49,151,187,14,60,120,146,63,73,65,22,140,85,57,15,45,104,36,57,44,78,162,165,14,46,155,182,174,125,71,43,139,164,144,15,18,157,150,116,34,86,90,67,83,71</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F62" si="0">(E5)*5+3</f>
+        <f t="shared" ref="F5:F63" si="0">(E5)*5+3</f>
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
@@ -469,7 +466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
@@ -478,7 +475,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
@@ -487,7 +484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
@@ -496,7 +493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
@@ -505,7 +502,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E11" s="1">
         <v>44</v>
       </c>
@@ -514,7 +511,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E12" s="1">
         <v>104</v>
       </c>
@@ -523,7 +520,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E13" s="1">
         <v>56</v>
       </c>
@@ -532,7 +529,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E14" s="1">
         <v>129</v>
       </c>
@@ -541,7 +538,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E15" s="1">
         <v>156</v>
       </c>
@@ -550,7 +547,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E16" s="1">
         <v>49</v>
       </c>
@@ -559,7 +556,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E17" s="1">
         <v>151</v>
       </c>
@@ -568,7 +565,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E18" s="1">
         <v>187</v>
       </c>
@@ -577,7 +574,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E19" s="1">
         <v>14</v>
       </c>
@@ -586,7 +583,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E20" s="1">
         <v>60</v>
       </c>
@@ -595,7 +592,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E21" s="1">
         <v>120</v>
       </c>
@@ -604,7 +601,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E22" s="1">
         <v>146</v>
       </c>
@@ -613,7 +610,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E23" s="1">
         <v>63</v>
       </c>
@@ -622,7 +619,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E24" s="1">
         <v>73</v>
       </c>
@@ -631,7 +628,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E25" s="1">
         <v>65</v>
       </c>
@@ -640,7 +637,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E26" s="1">
         <v>22</v>
       </c>
@@ -649,7 +646,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E27" s="1">
         <v>140</v>
       </c>
@@ -658,7 +655,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E28" s="1">
         <v>85</v>
       </c>
@@ -667,7 +664,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E29" s="1">
         <v>57</v>
       </c>
@@ -676,7 +673,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E30" s="1">
         <v>15</v>
       </c>
@@ -685,7 +682,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E31" s="1">
         <v>45</v>
       </c>
@@ -694,7 +691,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E32" s="1">
         <v>104</v>
       </c>
@@ -703,7 +700,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E33" s="1">
         <v>36</v>
       </c>
@@ -712,7 +709,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E34" s="1">
         <v>57</v>
       </c>
@@ -721,7 +718,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E35" s="1">
         <v>44</v>
       </c>
@@ -730,7 +727,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E36" s="1">
         <v>78</v>
       </c>
@@ -739,7 +736,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E37" s="1">
         <v>162</v>
       </c>
@@ -748,7 +745,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E38" s="1">
         <v>165</v>
       </c>
@@ -757,7 +754,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E39" s="1">
         <v>14</v>
       </c>
@@ -766,7 +763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E40" s="1">
         <v>46</v>
       </c>
@@ -775,7 +772,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E41" s="1">
         <v>155</v>
       </c>
@@ -784,7 +781,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E42" s="1">
         <v>182</v>
       </c>
@@ -793,7 +790,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E43" s="1">
         <v>174</v>
       </c>
@@ -802,7 +799,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E44" s="1">
         <v>125</v>
       </c>
@@ -811,7 +808,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E45" s="1">
         <v>71</v>
       </c>
@@ -820,7 +817,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E46" s="1">
         <v>43</v>
       </c>
@@ -829,7 +826,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E47" s="1">
         <v>139</v>
       </c>
@@ -838,7 +835,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E48" s="1">
         <v>164</v>
       </c>
@@ -847,7 +844,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E49" s="1">
         <v>144</v>
       </c>
@@ -856,7 +853,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E50" s="1">
         <v>15</v>
       </c>
@@ -865,7 +862,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E51" s="1">
         <v>18</v>
       </c>
@@ -874,7 +871,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E52" s="1">
         <v>157</v>
       </c>
@@ -883,7 +880,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E53" s="1">
         <v>150</v>
       </c>
@@ -892,7 +889,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E54" s="1">
         <v>116</v>
       </c>
@@ -901,7 +898,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E55" s="1">
         <v>34</v>
       </c>
@@ -910,7 +907,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E56" s="1">
         <v>86</v>
       </c>
@@ -919,7 +916,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E57" s="1">
         <v>90</v>
       </c>
@@ -928,7 +925,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E58" s="1">
         <v>67</v>
       </c>
@@ -937,7 +934,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E59" s="1">
         <v>83</v>
       </c>
@@ -946,7 +943,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E60" s="1">
         <v>71</v>
       </c>
@@ -955,7 +952,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E61" s="1">
         <v>986</v>
       </c>
@@ -964,13 +961,22 @@
         <v>4933</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E62">
         <v>9126</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
         <v>45633</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E63" s="1">
+        <v>9730</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>48653</v>
       </c>
     </row>
   </sheetData>
